--- a/TCC EXCEL FILES/TCC 2023.xlsx
+++ b/TCC EXCEL FILES/TCC 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B117854-B084-4840-8251-41FAAE3399AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D9EA4-5670-4365-BA9E-A65C976B9EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="319">
   <si>
     <t>Judges Names</t>
   </si>
@@ -974,6 +974,9 @@
   </si>
   <si>
     <t>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/521123/index.do</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1369,7 @@
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1404,10 +1407,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>318</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1444,11 +1450,14 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1485,11 +1494,14 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1526,11 +1538,14 @@
       <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1567,11 +1582,14 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1608,11 +1626,14 @@
       <c r="L6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1649,11 +1670,14 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1690,11 +1714,14 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1731,11 +1758,14 @@
       <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1772,11 +1802,14 @@
       <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1813,11 +1846,14 @@
       <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -1854,11 +1890,14 @@
       <c r="L12" t="s">
         <v>52</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -1895,11 +1934,14 @@
       <c r="L13" t="s">
         <v>22</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -1936,11 +1978,14 @@
       <c r="L14" t="s">
         <v>22</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -1977,11 +2022,14 @@
       <c r="L15" t="s">
         <v>52</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2018,11 +2066,14 @@
       <c r="L16" t="s">
         <v>22</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -2059,11 +2110,14 @@
       <c r="L17" t="s">
         <v>52</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -2100,11 +2154,14 @@
       <c r="L18" t="s">
         <v>22</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -2141,11 +2198,14 @@
       <c r="L19" t="s">
         <v>22</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2182,11 +2242,14 @@
       <c r="L20" t="s">
         <v>22</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -2223,11 +2286,14 @@
       <c r="L21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -2264,11 +2330,14 @@
       <c r="L22" t="s">
         <v>52</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -2305,11 +2374,14 @@
       <c r="L23" t="s">
         <v>22</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2346,11 +2418,14 @@
       <c r="L24" t="s">
         <v>22</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -2387,11 +2462,14 @@
       <c r="L25" t="s">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2428,11 +2506,14 @@
       <c r="L26" t="s">
         <v>52</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -2469,11 +2550,14 @@
       <c r="L27" t="s">
         <v>52</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2510,11 +2594,14 @@
       <c r="L28" t="s">
         <v>22</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -2551,11 +2638,14 @@
       <c r="L29" t="s">
         <v>52</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2592,11 +2682,14 @@
       <c r="L30" t="s">
         <v>22</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>156</v>
       </c>
@@ -2628,11 +2721,14 @@
       <c r="L31" t="s">
         <v>161</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -2669,11 +2765,14 @@
       <c r="L32" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -2710,11 +2809,14 @@
       <c r="L33" t="s">
         <v>52</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>171</v>
       </c>
@@ -2751,11 +2853,14 @@
       <c r="L34" t="s">
         <v>22</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2792,11 +2897,14 @@
       <c r="L35" t="s">
         <v>22</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2833,11 +2941,14 @@
       <c r="L36" t="s">
         <v>22</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2874,11 +2985,14 @@
       <c r="L37" t="s">
         <v>22</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -2915,11 +3029,14 @@
       <c r="L38" t="s">
         <v>22</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -2956,11 +3073,14 @@
       <c r="L39" t="s">
         <v>22</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2997,11 +3117,14 @@
       <c r="L40" t="s">
         <v>22</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -3038,11 +3161,14 @@
       <c r="L41" t="s">
         <v>22</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3079,11 +3205,14 @@
       <c r="L42" t="s">
         <v>22</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -3120,11 +3249,14 @@
       <c r="L43" t="s">
         <v>22</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -3161,11 +3293,14 @@
       <c r="L44" t="s">
         <v>52</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>210</v>
       </c>
@@ -3202,11 +3337,14 @@
       <c r="L45" t="s">
         <v>22</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>111</v>
       </c>
@@ -3243,11 +3381,14 @@
       <c r="L46" t="s">
         <v>52</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -3284,11 +3425,14 @@
       <c r="L47" t="s">
         <v>52</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>218</v>
       </c>
@@ -3325,11 +3469,14 @@
       <c r="L48" t="s">
         <v>22</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -3366,11 +3513,14 @@
       <c r="L49" t="s">
         <v>22</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -3407,11 +3557,14 @@
       <c r="L50" t="s">
         <v>52</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>218</v>
       </c>
@@ -3448,11 +3601,14 @@
       <c r="L51" t="s">
         <v>22</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3483,11 +3639,14 @@
       <c r="L52" t="s">
         <v>161</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>227</v>
       </c>
@@ -3524,11 +3683,14 @@
       <c r="L53" t="s">
         <v>22</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>171</v>
       </c>
@@ -3565,11 +3727,14 @@
       <c r="L54" t="s">
         <v>22</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3606,11 +3771,14 @@
       <c r="L55" t="s">
         <v>22</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -3647,11 +3815,14 @@
       <c r="L56" t="s">
         <v>22</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -3688,11 +3859,14 @@
       <c r="L57" t="s">
         <v>52</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -3729,11 +3903,14 @@
       <c r="L58" t="s">
         <v>22</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -3764,11 +3941,14 @@
       <c r="L59" t="s">
         <v>161</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -3805,11 +3985,14 @@
       <c r="L60" t="s">
         <v>22</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -3846,11 +4029,14 @@
       <c r="L61" t="s">
         <v>22</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3887,11 +4073,14 @@
       <c r="L62" t="s">
         <v>22</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>227</v>
       </c>
@@ -3928,11 +4117,14 @@
       <c r="L63" t="s">
         <v>22</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -3969,11 +4161,14 @@
       <c r="L64" t="s">
         <v>52</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -4010,11 +4205,14 @@
       <c r="L65" t="s">
         <v>22</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -4051,11 +4249,14 @@
       <c r="L66" t="s">
         <v>22</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -4092,11 +4293,14 @@
       <c r="L67" t="s">
         <v>22</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>269</v>
       </c>
@@ -4133,11 +4337,14 @@
       <c r="L68" t="s">
         <v>22</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>227</v>
       </c>
@@ -4174,14 +4381,17 @@
       <c r="L69" t="s">
         <v>22</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M1 A2:L11" numberStoredAsText="1"/>
+    <ignoredError sqref="N1 A1:L11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>